--- a/data/trans_bre/P21B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21B_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.029602897801486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.045666879047393</v>
+        <v>3.045666879047437</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.003122589115703805</v>
@@ -649,7 +649,7 @@
         <v>0.02225111054274404</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.03358533006521001</v>
+        <v>0.03358533006521051</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.840744021580231</v>
+        <v>-3.8349552460819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.283904011521037</v>
+        <v>-3.781935074610002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.339537826455809</v>
+        <v>-5.347151482310827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.887469090737076</v>
+        <v>-8.154903979813147</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03866145470314295</v>
+        <v>-0.03848540122689986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04346836659397502</v>
+        <v>-0.0378604364813769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05560234807055615</v>
+        <v>-0.05635521857573626</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09173670698919277</v>
+        <v>-0.0815949357273433</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.432786787622662</v>
+        <v>3.583476064377999</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.925404253733515</v>
+        <v>3.130106217468221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.20322176293606</v>
+        <v>10.19147447683924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.95442415033622</v>
+        <v>20.03146110347529</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.036002106745721</v>
+        <v>0.03760965945071636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0303693642647503</v>
+        <v>0.03238730237502956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1314320189618721</v>
+        <v>0.1183959185862364</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2810694305810955</v>
+        <v>0.2597099246666295</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.124950350242329</v>
+        <v>-4.840664879469387</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.213994605779853</v>
+        <v>-7.213333838870064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.426812243675214</v>
+        <v>-7.481005072596698</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-19.76569436928132</v>
+        <v>-19.58382056385489</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05240898679085583</v>
+        <v>-0.04987304658125648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07424347594629058</v>
+        <v>-0.0733733489557583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07899217885972883</v>
+        <v>-0.08109341060043337</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1999925808286483</v>
+        <v>-0.1996546662432904</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.403971984383384</v>
+        <v>4.940438976243854</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.760020055242071</v>
+        <v>1.573166017296406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.625176776560879</v>
+        <v>9.158580305066437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-4.622252776994717</v>
+        <v>-4.349302876268574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05836453199490035</v>
+        <v>0.05361310821382766</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01751417178531742</v>
+        <v>0.01634937635292745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1155476691546693</v>
+        <v>0.1094234581391613</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.04882273377882415</v>
+        <v>-0.04765197437589715</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-7.143596276883124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.195840878619683</v>
+        <v>4.195840878619716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0005172055957762184</v>
@@ -849,7 +849,7 @@
         <v>-0.07598080449809516</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04699315898514349</v>
+        <v>0.04699315898514387</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.366017396503663</v>
+        <v>-3.039987701521533</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.669083769330518</v>
+        <v>-1.239550064320549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.80387235885788</v>
+        <v>-15.0298708831654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.819745969466025</v>
+        <v>-1.739504031137408</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03370229613795358</v>
+        <v>-0.03085201668550102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01678218885230212</v>
+        <v>-0.01256224094631042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.155664431253259</v>
+        <v>-0.1591430675270288</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.01924440822823857</v>
+        <v>-0.0188909230725673</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.611694133685551</v>
+        <v>4.29636945736775</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.364776257977453</v>
+        <v>8.233752953985714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.125221282234664</v>
+        <v>-0.03556255838902493</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.72164839240864</v>
+        <v>12.1057426450297</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0485320885888266</v>
+        <v>0.04532894507675841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07946850481885108</v>
+        <v>0.09027473103471641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01138646400838217</v>
+        <v>-0.003666752204387502</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1393353774214549</v>
+        <v>0.1447527942428791</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.625372967992667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.443948577406029</v>
+        <v>-1.443948577406018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07669876486579619</v>
@@ -949,7 +949,7 @@
         <v>0.02813551587800171</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.01603949819568858</v>
+        <v>-0.01603949819568845</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.45785940210514</v>
+        <v>2.420940747246451</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.92473484681172</v>
+        <v>-8.698159906266284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.858810960822457</v>
+        <v>-3.612067152154796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.031351602857466</v>
+        <v>-7.36536764425451</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02515720059778433</v>
+        <v>0.02480601144724907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09069943175519397</v>
+        <v>-0.08971453286154858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03924991087384186</v>
+        <v>-0.03670688216047494</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07767723341501305</v>
+        <v>-0.0788124796949173</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.43843800658366</v>
+        <v>15.71017947959481</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.326834825003343</v>
+        <v>4.262329858807044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.9008963101622</v>
+        <v>11.20571199466761</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.700842762471402</v>
+        <v>4.841953883244452</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1825213355255135</v>
+        <v>0.1862166645311158</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0464953531102811</v>
+        <v>0.04579791620808817</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1267467838399609</v>
+        <v>0.1301633597206474</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0537821105180319</v>
+        <v>0.05456509600284999</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.608187134946826</v>
+        <v>-3.674018283747077</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.284762242235701</v>
+        <v>-1.563248510033679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.519872011247722</v>
+        <v>-6.90678578806167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.890883117088133</v>
+        <v>-6.251443822271792</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.04865140803004421</v>
+        <v>-0.03795618042824371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01317095418445932</v>
+        <v>-0.01580988957049666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.07622605473700342</v>
+        <v>-0.06976925471830457</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0718121499093004</v>
+        <v>-0.06542088596595812</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.49387934941373</v>
+        <v>15.10722133887993</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.153576077240864</v>
+        <v>7.117899881499542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.640040380029495</v>
+        <v>5.552502998022017</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.49285788484795</v>
+        <v>6.119951263641483</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2052536285836709</v>
+        <v>0.1832873158882613</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08887178633671995</v>
+        <v>0.07664444776846008</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05873639611963015</v>
+        <v>0.05960585517841933</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.06269872735131553</v>
+        <v>0.07149795482661224</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-0.7524946435442104</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.154179472153277</v>
+        <v>7.154179472153266</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00153903341819349</v>
@@ -1149,7 +1149,7 @@
         <v>-0.007788104448757524</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.08266586831125276</v>
+        <v>0.08266586831125264</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.622782309551887</v>
+        <v>-4.171944841814811</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.96132489561435</v>
+        <v>-7.26359586978083</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.688093473914557</v>
+        <v>-6.853484822338976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.1735303866218584</v>
+        <v>0.3860207006938389</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03645055144687302</v>
+        <v>-0.04290701458750665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0696132489561435</v>
+        <v>-0.0726359586978083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06783979904781874</v>
+        <v>-0.06960807668435522</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.001657884289572424</v>
+        <v>0.005041875475760552</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.277237744476135</v>
+        <v>6.149193285893189</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.977104516027429</v>
+        <v>6.009863330804341</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.19611064989125</v>
+        <v>15.89477670777402</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06751180549979584</v>
+        <v>0.06631342580376839</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07547039030520511</v>
+        <v>0.06604308508111632</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2067013767946421</v>
+        <v>0.2032562478496086</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.247988705804675</v>
+        <v>-5.571713207167265</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.65015496522934</v>
+        <v>-3.951282300622173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.147222336430835</v>
+        <v>-1.832058243662724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.026234577939354</v>
+        <v>-2.108320417085177</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.05394045968571547</v>
+        <v>-0.05598397139641173</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.0365015496522934</v>
+        <v>-0.03951282300622173</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.02289396930356493</v>
+        <v>-0.0190550118211206</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02050925959835458</v>
+        <v>-0.02123243120879293</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.864366246309919</v>
+        <v>8.169272726039477</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.57904771353489</v>
+        <v>18.23967869627023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.791079462302081</v>
+        <v>8.700697191793386</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09899335773355741</v>
+        <v>0.09121795556121166</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2388704315270758</v>
+        <v>0.2299902356062004</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.09984477888552704</v>
+        <v>0.09746031146936043</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.1185530727297546</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3682128997439138</v>
+        <v>0.3682128997438916</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01381109550743543</v>
@@ -1349,7 +1349,7 @@
         <v>-0.001278217422498558</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.004031800484549865</v>
+        <v>0.004031800484549622</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.7593085929147324</v>
+        <v>-0.6818117709196619</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.104904378335506</v>
+        <v>-2.234398639816451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.376976718468921</v>
+        <v>-2.987408473969538</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.126178553228495</v>
+        <v>-2.353982749291541</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.00797790037507507</v>
+        <v>-0.007029674422532379</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02147843612459237</v>
+        <v>-0.02267630484822196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03573018474759772</v>
+        <v>-0.03180958782832873</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0228554554281076</v>
+        <v>-0.02531563778687341</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.920316785941713</v>
+        <v>3.923660182614095</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.260113249446566</v>
+        <v>1.282421306349554</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.843328789199678</v>
+        <v>3.119702891435057</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.359203662150533</v>
+        <v>3.700543225327531</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04177278339647986</v>
+        <v>0.04175580180060562</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01308177327940702</v>
+        <v>0.01340616790080459</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03118950740521188</v>
+        <v>0.03444754431519152</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.03765420928124116</v>
+        <v>0.04138077882090823</v>
       </c>
     </row>
     <row r="28">
